--- a/published-data/fonds-solidarite/fds-2021-04-19/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-04-19/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1800,13 +1800,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>26638</v>
+        <v>26637</v>
       </c>
       <c r="D20">
         <v>6822</v>
       </c>
       <c r="E20">
-        <v>45615176</v>
+        <v>45613376</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -3480,13 +3480,13 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>84515</v>
+        <v>84516</v>
       </c>
       <c r="D68">
-        <v>22604</v>
+        <v>22605</v>
       </c>
       <c r="E68">
-        <v>139757977</v>
+        <v>139759777</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
@@ -17235,13 +17235,13 @@
         <v>12</v>
       </c>
       <c r="C461">
-        <v>51762</v>
+        <v>51763</v>
       </c>
       <c r="D461">
         <v>11741</v>
       </c>
       <c r="E461">
-        <v>203364891</v>
+        <v>203367066</v>
       </c>
       <c r="F461" t="s">
         <v>22</v>
@@ -28190,13 +28190,13 @@
         <v>12</v>
       </c>
       <c r="C774">
-        <v>106184</v>
+        <v>106185</v>
       </c>
       <c r="D774">
         <v>27798</v>
       </c>
       <c r="E774">
-        <v>161027614</v>
+        <v>161029782</v>
       </c>
       <c r="F774" t="s">
         <v>28</v>
